--- a/相关文档/开发文档/功能矩阵.xlsx
+++ b/相关文档/开发文档/功能矩阵.xlsx
@@ -1,92 +1,115 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myeclipse\git\wemall\doc\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
+    <workbookView windowWidth="20385" windowHeight="7950" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="功能矩阵" sheetId="1" r:id="rId1"/>
     <sheet name="技术架构" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
+  <si>
+    <t>功能</t>
+  </si>
+  <si>
+    <t>描述</t>
+  </si>
   <si>
     <t>平台自营商城</t>
   </si>
   <si>
     <t>B2B2C模式下平台运营商无需开店即可发布自己的自营商品，构建自己的B2C商城体系，运营商自身主要盈利模式是商品销售盈利，自营商品可以参与系统所有促销及各类专题配置。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>商家入驻体系</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>所有商城注册用户都可以申请入驻商城，注册用户向平台商提交相关申请资料，选择销售商品类型，线下签署相关合同，运营商审核通过后即可开通商品，发布商品在商城进行销售。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>佣金结算体系</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>入驻商家销售商品后，订单经过买家评价或到期自动评价后，系统根据不同商品种类扣除相应平台佣金并自动生成结算信息，平台运营商可以任意设定月结算次数，入驻商户按时提交结算申请，运营商根据结算申请完成结算。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品管理</t>
   </si>
   <si>
     <t>平台运营商、入驻商户都可以自定义商品规格信息，发布商品时选择相应的商品规格，配置商品规格库存、价格，精细化商品管理，其中颜色规格可以上传多组不同色调图片，供买家购物时参考。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单管理</t>
+  </si>
+  <si>
+    <t>入驻商家可以登录卖家会员中心管理自己的订单。订单主要状态有：等待买家付款、买家已付款、卖家已发货、交易成功、交易关闭、待评价、已评价等。买家登录会员中心可以对订单进行付款、确认收货、退款、评价、投诉等操作。平台管理员可以查询所有订单，并处理投诉纠纷。</t>
+  </si>
+  <si>
+    <t>配送管理</t>
+  </si>
+  <si>
+    <t>入驻商家可以配置自己的运费模板。分为按件数、重量、体积三种方式，不同区域可以设置不同的运费模板，发布产品时选择对应的运费模板，方便买家购买时查看和计算运费。</t>
   </si>
   <si>
     <t>商家子账户管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>注册即可申请开店，支持无数个店铺同时经营，同时为减轻多家店铺为卖家带来的负担，系统开通店铺子账户功能，卖家可以为一个店铺分配多个子账户，多个子账户可同时管理一家店铺，不同的店铺等级可以自主分配不同数量的子账户，为卖家带来轻松和方便。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运营管理</t>
+  </si>
+  <si>
+    <t>平台多种营销方式，平台营销方式为团购、优惠券、组合销售、竞价直通车、商城活动、积分商城、买就送、满就减等，多种多样的营销方式为平台运营商提供了多渠道的盈利策略，同时也给商家提供了更多促销商品的渠道，也使得平台商品促销多样化，多元化。</t>
   </si>
   <si>
     <t>多支付方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B2B2C商城系统支持所有主流支付接口（支付宝、网银在线、Paypal、财付通、快钱），除了第三方支付平台外用户还可以存入预存 款使用预存款支付，系统为买家提供多种支付方式，多种多样的支付方式供卖家和买家选择，最大程度为买家和卖家的交易中提供方便， 避免了交易当中不必要的麻烦。</t>
   </si>
   <si>
     <t>物流实时跟踪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>新增快递物流查询系统（同时支持收费接口和免费接口），平台管理自行申请该接口API，并设置物流公司信息，通过卖家发货时选择物流公司，买家就可以查看相应订单的物流信息，可以随时随地的了解宝贝的快递状况。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Wap（微信）商城</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统带Wap（微信）商城系统，可以直接绑定微信账号，微信商城和PC商城数据完全一致，是电商平台另一个销售渠道。</t>
+  </si>
+  <si>
+    <t>技术构架：J2EE</t>
   </si>
   <si>
     <t>开发语言： Java</t>
   </si>
   <si>
+    <t>数 据 库 ： MySQL</t>
+  </si>
+  <si>
     <t>核心框架： Spring、SpringMVC、Hibernate</t>
   </si>
   <si>
     <t>缓存技术： Ehcache</t>
   </si>
   <si>
+    <t>全文检索： Lucene</t>
+  </si>
+  <si>
+    <t>模板视图： Velocity、HTML、CSS、JQuery</t>
+  </si>
+  <si>
     <t>权限控制： Shiro</t>
   </si>
   <si>
@@ -96,97 +119,33 @@
     <t>操作系统： Windows、Linux、Unix</t>
   </si>
   <si>
+    <t>基础环境： JDK 1.7+</t>
+  </si>
+  <si>
+    <t>服 务 器 ： Tomcat 7.0+</t>
+  </si>
+  <si>
     <t>数 据 库 ： MySQL 5.5+、SQLServer 2005+、Oracle 11g+</t>
   </si>
   <si>
     <t>浏 览 器 ： IE 7.0+、Firefox、Chrome、Opera …</t>
-  </si>
-  <si>
-    <t>数 据 库 ： MySQL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全文检索： Lucene</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技术构架：J2EE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>平台多种营销方式，平台营销方式为团购、优惠券、组合销售、竞价直通车、商城活动、积分商城、买就送、满就减等，多种多样的营销方式为平台运营商提供了多渠道的盈利策略，同时也给商家提供了更多促销商品的渠道，也使得平台商品促销多样化，多元化。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>运营管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>订单管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>配送管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>入驻商家可以登录卖家会员中心管理自己的订单。订单主要状态有：等待买家付款、买家已付款、卖家已发货、交易成功、交易关闭、待评价、已评价等。买家登录会员中心可以对订单进行付款、确认收货、退款、评价、投诉等操作。平台管理员可以查询所有订单，并处理投诉纠纷。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>入驻商家可以配置自己的运费模板。分为按件数、重量、体积三种方式，不同区域可以设置不同的运费模板，发布产品时选择对应的运费模板，方便买家购买时查看和计算运费。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B2B2C商城系统支持所有主流支付接口（支付宝、网银在线、Paypal、财付通、快钱），除了第三方支付平台外用户还可以存入预存 款使用预存款支付，系统为买家提供多种支付方式，多种多样的支付方式供卖家和买家选择，最大程度为买家和卖家的交易中提供方便， 避免了交易当中不必要的麻烦。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础环境： JDK 1.7+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模板视图： Velocity、HTML、CSS、JQuery</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>服 务 器 ： Tomcat 7.0+</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统带Wap（微信）商城系统，可以直接绑定微信账号，微信商城和PC商城数据完全一致，是电商平台另一个销售渠道。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -194,7 +153,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -202,18 +160,167 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -226,8 +333,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -237,22 +530,264 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -260,107 +795,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -374,7 +885,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -409,7 +920,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -444,7 +955,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -618,216 +1129,213 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="18.88671875" customWidth="1"/>
-    <col min="2" max="2" width="72.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.8833333333333" customWidth="1"/>
+    <col min="2" max="2" width="72.8833333333333" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" x14ac:dyDescent="0.25">
+    <row r="1" ht="15" spans="1:2">
       <c r="A1" s="3" t="s">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="46.8" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" ht="49.5" spans="1:2">
       <c r="A2" s="5" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" ht="49.5" spans="1:2">
+      <c r="A3" s="7" t="s">
+        <v>4</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" ht="49.5" spans="1:2">
+      <c r="A4" s="7" t="s">
+        <v>6</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>28</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" ht="49.5" spans="1:2">
+      <c r="A5" s="7" t="s">
+        <v>8</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="62.4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>29</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" ht="66" spans="1:2">
+      <c r="A6" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>30</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" ht="49.5" spans="1:2">
+      <c r="A7" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="62.4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" ht="66" spans="1:2">
+      <c r="A8" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="62.4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>27</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" ht="66" spans="1:2">
+      <c r="A9" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="62.4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" ht="66" spans="1:2">
+      <c r="A10" s="7" t="s">
+        <v>18</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" ht="49.5" spans="1:2">
+      <c r="A11" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>12</v>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" ht="33" spans="1:2">
+      <c r="A12" s="7" t="s">
+        <v>22</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="46.77734375" customWidth="1"/>
+    <col min="1" max="1" width="57.625" customWidth="1"/>
+    <col min="2" max="2" width="11.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+    <row r="1" ht="16.5" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" ht="16.5" spans="1:1">
+      <c r="A2" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" ht="16.5" spans="1:1">
+      <c r="A3" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" ht="16.5" spans="1:1">
+      <c r="A4" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" ht="16.5" spans="1:1">
+      <c r="A5" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" ht="16.5" spans="1:1">
+      <c r="A6" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" ht="16.5" spans="1:1">
+      <c r="A7" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" ht="16.5" spans="1:1">
+      <c r="A8" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" ht="16.5" spans="1:1">
+      <c r="A9" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" ht="16.5" spans="1:1">
+      <c r="A10" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" ht="16.5" spans="1:1">
+      <c r="A11" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" ht="16.5" spans="1:1">
+      <c r="A12" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+    <row r="13" ht="16.5" spans="1:1">
+      <c r="A13" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>20</v>
+    <row r="14" ht="16.5" spans="1:1">
+      <c r="A14" s="1" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>